--- a/wti模型3.0/data_output_eta/predictions_rbob_monthly.xlsx
+++ b/wti模型3.0/data_output_eta/predictions_rbob_monthly.xlsx
@@ -454,7 +454,7 @@
         <v>45991</v>
       </c>
       <c r="B2" t="n">
-        <v>17.20778274536133</v>
+        <v>15.8251781463623</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45961</v>
       </c>
       <c r="B3" t="n">
-        <v>17.22451591491699</v>
+        <v>18.17774391174316</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45930</v>
       </c>
       <c r="B4" t="n">
-        <v>18.24820899963379</v>
+        <v>17.91836929321289</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45900</v>
       </c>
       <c r="B5" t="n">
-        <v>18.75276947021484</v>
+        <v>18.65038871765137</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45869</v>
       </c>
       <c r="B6" t="n">
-        <v>21.65410804748535</v>
+        <v>21.23887062072754</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45838</v>
       </c>
       <c r="B7" t="n">
-        <v>21.48113250732422</v>
+        <v>21.25138664245605</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45808</v>
       </c>
       <c r="B8" t="n">
-        <v>24.45908737182617</v>
+        <v>24.5553035736084</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45777</v>
       </c>
       <c r="B9" t="n">
-        <v>26.72944831848145</v>
+        <v>26.6196117401123</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45747</v>
       </c>
       <c r="B10" t="n">
-        <v>24.75571250915527</v>
+        <v>24.83595848083496</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45716</v>
       </c>
       <c r="B11" t="n">
-        <v>24.60800552368164</v>
+        <v>24.18892860412598</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45688</v>
       </c>
       <c r="B12" t="n">
-        <v>14.89599323272705</v>
+        <v>15.07848834991455</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45657</v>
       </c>
       <c r="B13" t="n">
-        <v>13.26086616516113</v>
+        <v>13.82089996337891</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45626</v>
       </c>
       <c r="B14" t="n">
-        <v>12.872878074646</v>
+        <v>12.58361339569092</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45596</v>
       </c>
       <c r="B15" t="n">
-        <v>13.54401969909668</v>
+        <v>13.29953384399414</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45565</v>
       </c>
       <c r="B16" t="n">
-        <v>12.88800430297852</v>
+        <v>12.66551303863525</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45535</v>
       </c>
       <c r="B17" t="n">
-        <v>13.34288311004639</v>
+        <v>12.92565250396729</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45504</v>
       </c>
       <c r="B18" t="n">
-        <v>22.80108070373535</v>
+        <v>22.69183349609375</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45473</v>
       </c>
       <c r="B19" t="n">
-        <v>24.98311996459961</v>
+        <v>24.6817512512207</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45443</v>
       </c>
       <c r="B20" t="n">
-        <v>23.85094451904297</v>
+        <v>23.97696685791016</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45412</v>
       </c>
       <c r="B21" t="n">
-        <v>32.64859390258789</v>
+        <v>32.19055557250977</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45382</v>
       </c>
       <c r="B22" t="n">
-        <v>32.5593147277832</v>
+        <v>32.30900955200195</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45351</v>
       </c>
       <c r="B23" t="n">
-        <v>30.58338737487793</v>
+        <v>31.03658485412598</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45322</v>
       </c>
       <c r="B24" t="n">
-        <v>20.23084831237793</v>
+        <v>20.4122257232666</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45291</v>
       </c>
       <c r="B25" t="n">
-        <v>17.00722503662109</v>
+        <v>16.83600044250488</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45260</v>
       </c>
       <c r="B26" t="n">
-        <v>15.37046432495117</v>
+        <v>15.17129421234131</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45230</v>
       </c>
       <c r="B27" t="n">
-        <v>11.98317623138428</v>
+        <v>12.56902122497559</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45199</v>
       </c>
       <c r="B28" t="n">
-        <v>11.71494388580322</v>
+        <v>11.32696437835693</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45169</v>
       </c>
       <c r="B29" t="n">
-        <v>25.30870819091797</v>
+        <v>24.93119239807129</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45138</v>
       </c>
       <c r="B30" t="n">
-        <v>36.71550369262695</v>
+        <v>36.83232879638672</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45107</v>
       </c>
       <c r="B31" t="n">
-        <v>34.59160614013672</v>
+        <v>34.52827072143555</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45077</v>
       </c>
       <c r="B32" t="n">
-        <v>33.64326858520508</v>
+        <v>33.67373275756836</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45046</v>
       </c>
       <c r="B33" t="n">
-        <v>30.00681686401367</v>
+        <v>30.0858268737793</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45016</v>
       </c>
       <c r="B34" t="n">
-        <v>36.21150970458984</v>
+        <v>36.17101287841797</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>44985</v>
       </c>
       <c r="B35" t="n">
-        <v>33.55345153808594</v>
+        <v>33.23563385009766</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>44957</v>
       </c>
       <c r="B36" t="n">
-        <v>29.73163795471191</v>
+        <v>29.02166748046875</v>
       </c>
     </row>
   </sheetData>
